--- a/excel_file/example.xlsx
+++ b/excel_file/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaros\Desktop\excel_to_word\excel_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E998EC1-33D6-144E-A281-B7E41AFEBD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAA1763-71EB-4D58-879B-CB9D511FF644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="25380" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3540" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="112">
   <si>
     <t>汇总表-通用版</t>
   </si>
@@ -102,39 +102,6 @@
     <t>女</t>
   </si>
   <si>
-    <t>焦宗顺</t>
-  </si>
-  <si>
-    <t>山东潍坊高密市阚家镇胡家村71号</t>
-  </si>
-  <si>
-    <t>15865362711</t>
-  </si>
-  <si>
-    <t>370727198008055718</t>
-  </si>
-  <si>
-    <t>6250859051384306</t>
-  </si>
-  <si>
-    <t>140381.27</t>
-  </si>
-  <si>
-    <t>64652.27</t>
-  </si>
-  <si>
-    <t>42052.39</t>
-  </si>
-  <si>
-    <t>33676.61</t>
-  </si>
-  <si>
-    <t>18153.06</t>
-  </si>
-  <si>
-    <t>15523.55</t>
-  </si>
-  <si>
     <t>男</t>
   </si>
   <si>
@@ -346,6 +313,66 @@
   </si>
   <si>
     <t>6798.15</t>
+  </si>
+  <si>
+    <t>er_wr_a</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>er_wr_b</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>er_wr_c</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>er_wr_d</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>er_wr_e</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>er_wr_f</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>er_wr_g</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>er_wr_h</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>er_wr_i</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>er_wr_j</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>er_wr_k</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>er_wr_l</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>er_wr_m</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>er_wr_n</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>er_wr_o</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -353,21 +380,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,13 +418,26 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -474,11 +514,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -497,6 +537,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,8 +548,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -810,32 +853,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" ht="15.6">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:15" ht="81" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -884,7 +927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="120">
+    <row r="3" spans="1:15" ht="96">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -931,80 +974,80 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="60">
-      <c r="A4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="96">
+      <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3">
-        <v>67729514</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="105">
-      <c r="A5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E5" s="3">
         <v>67829194</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>24</v>
@@ -1022,36 +1065,36 @@
         <v>24</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="75">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="60">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3">
         <v>67829194</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>24</v>
@@ -1069,45 +1112,45 @@
         <v>24</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="90">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="72">
       <c r="A7" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E7" s="3">
         <v>67960650</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>24</v>
@@ -1116,45 +1159,45 @@
         <v>24</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="90">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="84">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E8" s="3">
         <v>67964664</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>24</v>
@@ -1163,45 +1206,45 @@
         <v>24</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="90">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="72">
       <c r="A9" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E9" s="3">
         <v>68014765</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>24</v>
@@ -1210,36 +1253,36 @@
         <v>24</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="120">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="96">
       <c r="A10" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3">
         <v>68014884</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>24</v>
@@ -1260,33 +1303,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="75">
+    <row r="11" spans="1:15" ht="60">
       <c r="A11" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E11" s="3">
         <v>68014884</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>24</v>
@@ -1307,42 +1350,42 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="135">
+    <row r="12" spans="1:15" ht="108">
       <c r="A12" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E12" s="3">
         <v>68015196</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>24</v>
@@ -3500,8 +3543,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3511,8 +3555,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -3524,8 +3569,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
